--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17175"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
   <si>
     <t>事件</t>
   </si>
@@ -42,45 +42,60 @@
     <t>正文</t>
   </si>
   <si>
+    <t>Appear-南希</t>
+  </si>
+  <si>
+    <t>南希</t>
+  </si>
+  <si>
+    <t>所以，你想好了吗？</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.3-0</t>
+  </si>
+  <si>
+    <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
+  </si>
+  <si>
+    <t>想好了，就签字，剩下的事情全部交给我。</t>
+  </si>
+  <si>
+    <t>就意味着我将自己的灵魂交予他人之手。</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.6-0</t>
+  </si>
+  <si>
+    <t>（画面转移到城市风景cg）</t>
+  </si>
+  <si>
+    <t>这里是即将被冠以天堂市区之名的54号区域，不受联合国或是公司任何一方管辖的，第三方自由地带。</t>
+  </si>
+  <si>
+    <t>我因为某种缘故流离失所，被迫来到了这处装载着未知和希望的地方。</t>
+  </si>
+  <si>
+    <t>旁白</t>
+  </si>
+  <si>
+    <t>54号区域的市民们享受着极其便利的生活，衣服、娱乐、医疗服务甚至是爱人家人都能够利用全息投影轻松搭配解决。</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.5-0</t>
+  </si>
+  <si>
+    <t>虚拟人，那些再也离不开科技的人类，这样称呼自己，并且全盘接受那些虚无缥缈的东西，让它们成为自己眼中独一的现实。</t>
+  </si>
+  <si>
+    <t>我所到达的，究竟是天堂，还是地狱？</t>
+  </si>
+  <si>
+    <t>（画面变暗，回到老登和酒吧的背景）</t>
+  </si>
+  <si>
     <t>？？？</t>
   </si>
   <si>
-    <t>所以，你想好了吗？</t>
-  </si>
-  <si>
-    <t>旁白</t>
-  </si>
-  <si>
-    <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
-  </si>
-  <si>
-    <t>想好了，就签字，剩下的事情全部交给我。</t>
-  </si>
-  <si>
-    <t>就意味着我将自己的灵魂交予他人之手。</t>
-  </si>
-  <si>
-    <t>（画面转移到城市风景cg）</t>
-  </si>
-  <si>
-    <t>这里是即将被冠以天堂市区之名的54号区域，不受联合国或是公司任何一方管辖的，第三方自由地带。</t>
-  </si>
-  <si>
-    <t>我因为某种缘故流离失所，被迫来到了这处装载着未知和希望的地方。</t>
-  </si>
-  <si>
-    <t>54号区域的市民们享受着极其便利的生活，衣服、娱乐、医疗服务甚至是爱人家人都能够利用全息投影轻松搭配解决。</t>
-  </si>
-  <si>
-    <t>虚拟人，那些再也离不开科技的人类，这样称呼自己，并且全盘接受那些虚无缥缈的东西，让它们成为自己眼中独一的现实。</t>
-  </si>
-  <si>
-    <t>我所到达的，究竟是天堂，还是地狱？</t>
-  </si>
-  <si>
-    <t>（画面变暗，回到老登和酒吧的背景）</t>
-  </si>
-  <si>
     <t>这样一来，我们就允许你继续管理这家酒吧。</t>
   </si>
   <si>
@@ -307,9 +322,6 @@
   </si>
   <si>
     <t>合上双眼，强烈的疲惫感顷刻间淹没了我的意识。</t>
-  </si>
-  <si>
-    <t>南希</t>
   </si>
   <si>
     <t>这是第二章</t>
@@ -323,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -784,19 +796,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,7 +1265,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1278,645 +1290,660 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="C42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="C45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="3:4">
       <c r="C47" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="3:4">
       <c r="C54" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="C60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="C62" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="3:4">
       <c r="C64" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="3:4">
       <c r="C65" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="3:4">
       <c r="C66" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="3:4">
       <c r="C67" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="3:4">
       <c r="C70" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="3:4">
       <c r="C76" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="3:4">
       <c r="C77" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="3:4">
       <c r="C80" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1952,53 +1979,53 @@
     </row>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>事件</t>
   </si>
@@ -57,13 +57,13 @@
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
+    <t>Disappear-南希</t>
+  </si>
+  <si>
     <t>想好了，就签字，剩下的事情全部交给我。</t>
   </si>
   <si>
     <t>就意味着我将自己的灵魂交予他人之手。</t>
-  </si>
-  <si>
-    <t>SetPos-南希-0.6-0</t>
   </si>
   <si>
     <t>（画面转移到城市风景cg）</t>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1312,12 +1312,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1325,13 +1328,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1339,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
   <si>
     <t>事件</t>
   </si>
@@ -57,13 +57,13 @@
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
-    <t>Disappear-南希</t>
-  </si>
-  <si>
     <t>想好了，就签字，剩下的事情全部交给我。</t>
   </si>
   <si>
     <t>就意味着我将自己的灵魂交予他人之手。</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.6-0</t>
   </si>
   <si>
     <t>（画面转移到城市风景cg）</t>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1312,15 +1312,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="3:4">
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1328,10 +1325,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -1339,10 +1339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
         <v>5</v>
       </c>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>事件</t>
   </si>
@@ -51,7 +51,7 @@
     <t>所以，你想好了吗？</t>
   </si>
   <si>
-    <t>SetPos-南希-0.3-0</t>
+    <t>Trigger-Trade-Chief</t>
   </si>
   <si>
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
@@ -97,231 +97,6 @@
   </si>
   <si>
     <t>这样一来，我们就允许你继续管理这家酒吧。</t>
-  </si>
-  <si>
-    <t>眼前的老练律师没有看我一眼，只是在确认我签好字后，就收起文件准备离开了。</t>
-  </si>
-  <si>
-    <t>我叫劳登，感谢你的配合。</t>
-  </si>
-  <si>
-    <t>他没有立刻消失在我的视野之外，像是在思考着什么似的看着我。</t>
-  </si>
-  <si>
-    <t>劳登</t>
-  </si>
-  <si>
-    <t>....还有，给你一些建议吧——要么在规定的一个月内凑齐足够的钱，要么就找到那个混蛋，否则我无法保证你在失去庇护后是否还能够像个人一样活在这世上。</t>
-  </si>
-  <si>
-    <t>律师离开了，他将绝望留给我一人承担。</t>
-  </si>
-  <si>
-    <t>倒不如说，这本就该怪我选了这么一个倒霉的地方打工，时机不对，人也不对。</t>
-  </si>
-  <si>
-    <t>雪莉</t>
-  </si>
-  <si>
-    <t>该死的资本家。</t>
-  </si>
-  <si>
-    <t>酒吧的一侧墙上挂着那位老板的肖像画，但据说是被本人要求过度美化后的版本，看起来让人本能地感到厌恶。</t>
-  </si>
-  <si>
-    <t>有哪家酒吧会通过推销老板本人盈利，而不是招牌饮品之类的东西呢？</t>
-  </si>
-  <si>
-    <t>（早知道自己就一走了之好了，现在居然还要背别人的债务。）</t>
-  </si>
-  <si>
-    <t>虽然心里很不爽，可是我一贯信任的直觉却让我留下来，至少，我还能依靠这个不凡之地捞一笔。</t>
-  </si>
-  <si>
-    <t>是的，这家酒吧在我打工期间就展现出其独特的功能，我从那些顾客手里拿到的小费数额就能够看出，这里绝对是聚宝盆。</t>
-  </si>
-  <si>
-    <t>酒吧的内饰和平常酒吧无异，白天陷入死寂，夜晚火热异常，然而带来火热的人们却截然不同。</t>
-  </si>
-  <si>
-    <t>警察，黑客，罪犯，官员，明星....社会上有头有脸的人物，都会不约而同地在某一个时间点突然出现在你的吧台前，然后说一句你在前一天晚上快要听吐的暗号，这间酒吧才会开始它真正的营业时间。</t>
-  </si>
-  <si>
-    <t>而我从明天起，就不再是简单的听听暗号再敲门的酒保，而是为自己打开罪恶之门的贪欲本身。</t>
-  </si>
-  <si>
-    <t>对了，明天有一位比较有趣的顾客预约了单子，我看看——</t>
-  </si>
-  <si>
-    <t>（画面转至雪莉手持便利签的特写cg）</t>
-  </si>
-  <si>
-    <t>我撕下贴在吧台下方柜门上的便利签，上面写着一位名叫希尔薇的女学生的简短信息，因为信息库里面还没有收容过她，所以我对她是一无所知的。</t>
-  </si>
-  <si>
-    <t>换句话说，就是一位需要认真对待的新顾客，哪怕她是个jk。</t>
-  </si>
-  <si>
-    <t>这么快就进入工作模式了？</t>
-  </si>
-  <si>
-    <t>（画面从便利签cg转回酒吧背景和后厨立绘）</t>
-  </si>
-  <si>
-    <t>特维斯，与我不同的本地人，同时也是这家酒吧的后厨之一，前两天他的搭档因为老板失踪而离职，就目前来看，这家酒吧的活人只剩下我和他两人。</t>
-  </si>
-  <si>
-    <t>特维斯</t>
-  </si>
-  <si>
-    <t>店长大人，我给你的那条烟还不错吧？</t>
-  </si>
-  <si>
-    <t>别告诉我你又想请假。</t>
-  </si>
-  <si>
-    <t>那老东西一失踪，我的职责早就结束了。</t>
-  </si>
-  <si>
-    <t>你是想让我明天一个人应付整个酒场吗？</t>
-  </si>
-  <si>
-    <t>老实说，你认真的？你真觉得明天这鬼地方会开业吗？</t>
-  </si>
-  <si>
-    <t>他脸上露出一丝轻蔑，但也说的在理。</t>
-  </si>
-  <si>
-    <t>不试试怎么知道？</t>
-  </si>
-  <si>
-    <t>那就等你站稳了脚跟再叫我回来吧，记得是带薪休假哦。</t>
-  </si>
-  <si>
-    <t>我带你妈——</t>
-  </si>
-  <si>
-    <t>没等我骂完，特维斯潇洒地推开酒吧大门离开了。</t>
-  </si>
-  <si>
-    <t>这下连陪我训练的活人也没了....等等。</t>
-  </si>
-  <si>
-    <t>我看着吧台上配置的广告屏，突然想起一个不得已才会使用的妙招。</t>
-  </si>
-  <si>
-    <t>嗯——呼叫小帮手。</t>
-  </si>
-  <si>
-    <t>滋滋。</t>
-  </si>
-  <si>
-    <t>广告屏里飘出一个可爱的卡通人物，一边向我招手，一边露出诡异的笑容。</t>
-  </si>
-  <si>
-    <t>请你导入X先生的数据，并且上线他。</t>
-  </si>
-  <si>
-    <t>小帮手</t>
-  </si>
-  <si>
-    <t>收到！正在读取信息库....</t>
-  </si>
-  <si>
-    <t>另外，设置他今天的订单要求是.....雪莉的内裤颜色是什么。</t>
-  </si>
-  <si>
-    <t>（感觉有点恶趣味）....算——</t>
-  </si>
-  <si>
-    <t>设置成功！请问要加入收藏夹吗？</t>
-  </si>
-  <si>
-    <t>不用了。</t>
-  </si>
-  <si>
-    <t>原本死板诡异的卡通人物一下子两眼放光，很难怀疑这不是某些人的杰作。</t>
-  </si>
-  <si>
-    <t>大概加载数据几分钟后，再次被投影出的就不再是卡通人物，而是近乎与常人无异的网络版虚拟人。</t>
-  </si>
-  <si>
-    <t>（虽然之前见过几次，但是还是很难想象这种东西还有实体走在大街上，实在是难以理解。）</t>
-  </si>
-  <si>
-    <t>X先生是通过加载信息库内部顾客信息随机模拟后的产物，外形采用免费的上班族预设，一身笔挺的黑色西装，以及没有任何表情的中年僵尸脸。</t>
-  </si>
-  <si>
-    <t>你好，X先生。</t>
-  </si>
-  <si>
-    <t>X先生</t>
-  </si>
-  <si>
-    <t>费什说，天空是海，但海却不是天空。</t>
-  </si>
-  <si>
-    <t>因为此刻我们注视天空，却忘了海原本的颜色，海是寂静的被遗忘者。</t>
-  </si>
-  <si>
-    <t>（什么鬼暗号，这么长的吗？）</t>
-  </si>
-  <si>
-    <t>很高兴再次来到这里，雪莉小姐。</t>
-  </si>
-  <si>
-    <t>今天有一件极为重要的事情，我想订单上已经写了，那就是您的——</t>
-  </si>
-  <si>
-    <t>停！我知道你的要求，你只要按照惯例放上你的等价资产就可以了。</t>
-  </si>
-  <si>
-    <t>（这里插入游戏教学，以下是教学结束后的文本）</t>
-  </si>
-  <si>
-    <t>感觉也不是很难，可能还是因为这系统随机做得太烂了吧。</t>
-  </si>
-  <si>
-    <t>非常感谢您的服务，那么，我还有一个问题。</t>
-  </si>
-  <si>
-    <t>哦，好的.....嗯？</t>
-  </si>
-  <si>
-    <t>费什是杜撰的，实际上并不存在这样的作家，但是我却在寻找这种本不存在的存在，请问您这里有消息吗？</t>
-  </si>
-  <si>
-    <t>（不是应该结束了吗？难道还有额外委托....）</t>
-  </si>
-  <si>
-    <t>您是在要求新的委托吗？如果是的话也只能以预——</t>
-  </si>
-  <si>
-    <t>虽然作家并不存在，但我们仍然在追寻更多，并且渴望更多难以或不应存在的事物得以存在，仿佛这才是活着的意义。</t>
-  </si>
-  <si>
-    <t>我此刻，真的存在于此吗？</t>
-  </si>
-  <si>
-    <t>你.....</t>
-  </si>
-  <si>
-    <t>画面突然信号失常，X先生的面容扭曲成一个恐怖的模样，随后迅速消失在了空气之中。</t>
-  </si>
-  <si>
-    <t>你好！检测到BUG，正在修复中，您可以提交报告以便我们能够更好的处理这类问题。</t>
-  </si>
-  <si>
-    <t>滚回后台去。</t>
-  </si>
-  <si>
-    <t>不知怎的，我的眼皮一直跳个不停。</t>
-  </si>
-  <si>
-    <t>（妈的，希望明天能顺顺利利吧。）</t>
-  </si>
-  <si>
-    <t>合上双眼，强烈的疲惫感顷刻间淹没了我的意识。</t>
   </si>
   <si>
     <t>这是第二章</t>
@@ -1262,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1393,557 +1168,6 @@
       </c>
       <c r="D13" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1982,18 +1206,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -2001,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -2009,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -2017,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -2025,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -42,19 +42,19 @@
     <t>正文</t>
   </si>
   <si>
-    <t>Appear-南希</t>
-  </si>
-  <si>
     <t>南希</t>
   </si>
   <si>
     <t>所以，你想好了吗？</t>
   </si>
   <si>
+    <t>Trigger-Add-Player-2-{}-10</t>
+  </si>
+  <si>
+    <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
+  </si>
+  <si>
     <t>Trigger-Trade-Chief</t>
-  </si>
-  <si>
-    <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
     <t>想好了，就签字，剩下的事情全部交给我。</t>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1065,31 +1065,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1108,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1214,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>事件</t>
   </si>
@@ -42,13 +42,18 @@
     <t>正文</t>
   </si>
   <si>
+    <t>Trigger-Add-Player-2-{}-10+
+Trigger-Add-Player-20-{}-1+</t>
+  </si>
+  <si>
     <t>南希</t>
   </si>
   <si>
     <t>所以，你想好了吗？</t>
   </si>
   <si>
-    <t>Trigger-Add-Player-2-{}-10</t>
+    <t>Trigger-TradeBranch-{"BranchName":"B","BookPath":"testB1.xlsx","Level":"1"}-{"BranchName":"A","BookPath":"testB2.xlsx","Level":"2"}-{"BranchName":"A","BookPath":"testB2.xlsx","Level":"3"}-
+{"BranchName":"A","BookPath":"testB2.xlsx","Level":"4"}-</t>
   </si>
   <si>
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
@@ -716,8 +721,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,17 +1054,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="52.875" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="84.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1058,117 +1075,150 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
-      <c r="C2" t="s">
+    <row r="2" ht="28.5" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="3" ht="71.25" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" t="s">
-        <v>20</v>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,7 +1232,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.0083333333333" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1203,53 +1253,53 @@
     </row>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>事件</t>
   </si>
@@ -52,14 +52,10 @@
     <t>所以，你想好了吗？</t>
   </si>
   <si>
-    <t>Trigger-TradeBranch-{"BranchName":"B","BookPath":"testB1.xlsx","Level":"1"}-{"BranchName":"A","BookPath":"testB2.xlsx","Level":"2"}-{"BranchName":"A","BookPath":"testB2.xlsx","Level":"3"}-
-{"BranchName":"A","BookPath":"testB2.xlsx","Level":"4"}-</t>
+    <t>Trigger-Trade-Chief</t>
   </si>
   <si>
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
-  </si>
-  <si>
-    <t>Trigger-Trade-Chief</t>
   </si>
   <si>
     <t>想好了，就签字，剩下的事情全部交给我。</t>
@@ -721,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,9 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1057,7 +1050,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1093,8 +1086,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="71.25" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1104,15 +1097,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="3:4">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1120,18 +1110,18 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1139,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -1147,47 +1137,47 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="4:4">
@@ -1256,18 +1246,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -1275,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1283,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1291,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1299,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>事件</t>
   </si>
@@ -42,8 +42,8 @@
     <t>正文</t>
   </si>
   <si>
-    <t>Trigger-Add-Player-2-{}-10+
-Trigger-Add-Player-20-{}-1+</t>
+    <t>GT-Add-Player-2-{}-10+
+GT-Add-Player-20-{}-1+</t>
   </si>
   <si>
     <t>南希</t>
@@ -52,13 +52,16 @@
     <t>所以，你想好了吗？</t>
   </si>
   <si>
-    <t>Trigger-Trade-Chief</t>
-  </si>
-  <si>
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
+    <t>GT-Trade-Chief</t>
+  </si>
+  <si>
     <t>想好了，就签字，剩下的事情全部交给我。</t>
+  </si>
+  <si>
+    <t>GT-</t>
   </si>
   <si>
     <t>就意味着我将自己的灵魂交予他人之手。</t>
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1086,18 +1089,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="3:4">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:4">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1105,23 +1108,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1129,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -1137,47 +1143,47 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="4:4">
@@ -1246,18 +1252,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -1265,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1273,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1281,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1289,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>事件</t>
   </si>
@@ -52,6 +52,10 @@
     <t>所以，你想好了吗？</t>
   </si>
   <si>
+    <t>Appear-南希+
+SetPos-南希-0.5-0</t>
+  </si>
+  <si>
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
@@ -61,13 +65,10 @@
     <t>想好了，就签字，剩下的事情全部交给我。</t>
   </si>
   <si>
-    <t>GT-</t>
+    <t>GT-If-{Bigger-{float-0}-{Inventory-Player-2}}-{}</t>
   </si>
   <si>
     <t>就意味着我将自己的灵魂交予他人之手。</t>
-  </si>
-  <si>
-    <t>SetPos-南希-0.6-0</t>
   </si>
   <si>
     <t>（画面转移到城市风景cg）</t>
@@ -720,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,7 +1057,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1089,40 +1093,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" ht="28.5" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1134,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>事件</t>
   </si>
@@ -52,20 +52,18 @@
     <t>所以，你想好了吗？</t>
   </si>
   <si>
-    <t>Appear-南希+
-SetPos-南希-0.5-0</t>
+    <t>GT-Trade-Chief</t>
   </si>
   <si>
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
-    <t>GT-Trade-Chief</t>
+    <t>GT-If-{Bigger-{Inventory-Player-2}-{float-0}}-
+{Book-testB1.xlsx}-
+{Book-testB2.xlsx}</t>
   </si>
   <si>
     <t>想好了，就签字，剩下的事情全部交给我。</t>
-  </si>
-  <si>
-    <t>GT-If-{Bigger-{float-0}-{Inventory-Player-2}}-{}</t>
   </si>
   <si>
     <t>就意味着我将自己的灵魂交予他人之手。</t>
@@ -1057,12 +1055,12 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="52.875" customWidth="1"/>
+    <col min="1" max="1" width="64.5" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="84.375" customWidth="1"/>
@@ -1093,8 +1091,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1104,8 +1102,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" ht="42.75" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1115,15 +1113,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1131,18 +1126,18 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -1150,47 +1145,47 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="4:4">
@@ -1259,18 +1254,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -1278,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1286,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -1294,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1302,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -42,8 +42,8 @@
     <t>正文</t>
   </si>
   <si>
-    <t>GT-Add-Player-2-{}-10+
-GT-Add-Player-20-{}-1+</t>
+    <t>GT-Add-Player-2-{{}}-10+
+GT-Add-Player-20-{{}}-1+</t>
   </si>
   <si>
     <t>南希</t>
@@ -719,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,9 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,7 +1052,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1103,7 +1100,7 @@
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>事件</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>正文</t>
+  </si>
+  <si>
+    <t>GT-AutoSave+Appear-南希</t>
   </si>
   <si>
     <t>GT-Add-Player-2-{{}}-10+
@@ -58,7 +61,8 @@
     <t>我的眼前，摆着一份将决定我今后人生的合同，它的确轻得像一张纸，但是在我签上名的那一刻....</t>
   </si>
   <si>
-    <t>GT-If-{Bigger-{Inventory-Player-2}-{float-0}}-
+    <t>Disappear-南希+
+GT-If-{Bigger-{Inventory-Player-2}-{float-0}}-
 {Book-testB1.xlsx}-
 {Book-testB2.xlsx}</t>
   </si>
@@ -113,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -574,19 +578,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,7 +1056,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1077,42 +1081,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" ht="28.5" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="42.75" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" ht="57" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -1120,26 +1121,26 @@
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
+    <row r="7" spans="3:4">
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -1147,46 +1148,51 @@
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="3:4">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="4:4">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" s="3"/>
@@ -1248,53 +1254,53 @@
     </row>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/test.xlsx
+++ b/Assets/StreamingAssets/Book/CN/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>事件</t>
   </si>
@@ -42,17 +42,62 @@
     <t>正文</t>
   </si>
   <si>
-    <t>GT-AutoSave+Appear-南希</t>
+    <t>GT-AutoSave+Appear-南希
++SetPos-南希-0.6-0
++Appear-龙哥
++SetPos-龙哥-0.3-0</t>
+  </si>
+  <si>
+    <t>南希</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>GT-Add-Player-2-{}-4</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>GT-Add-Player-3-{}-1</t>
+  </si>
+  <si>
+    <t>龙哥</t>
+  </si>
+  <si>
+    <t>GT-Remove-Player-3-{}-1</t>
+  </si>
+  <si>
+    <t>南希+龙哥</t>
+  </si>
+  <si>
+    <t>23s</t>
+  </si>
+  <si>
+    <t>24s</t>
+  </si>
+  <si>
+    <t>Appear-劳登
++SetPos-劳登-0.5-0
++SetPos-龙哥-0.2-0
++SetPos-南希-0.8-0</t>
+  </si>
+  <si>
+    <t>劳登</t>
+  </si>
+  <si>
+    <t>嗨嗨嗨</t>
+  </si>
+  <si>
+    <t>所以，你想好了吗？</t>
+  </si>
+  <si>
+    <t>GT-End</t>
   </si>
   <si>
     <t>GT-Add-Player-2-{{}}-10+
 GT-Add-Player-20-{{}}-1+</t>
-  </si>
-  <si>
-    <t>南希</t>
-  </si>
-  <si>
-    <t>所以，你想好了吗？</t>
   </si>
   <si>
     <t>GT-Trade-Chief</t>
@@ -726,13 +771,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,173 +1098,223 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="64.5" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.375" customWidth="1"/>
+    <col min="1" max="1" width="64.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" ht="57" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="57" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="1" t="s">
-        <v>16</v>
+    <row r="11" ht="28.5" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="3:4">
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1254,53 +1349,53 @@
     </row>
     <row r="2" spans="3:4">
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
